--- a/Overview.xlsx
+++ b/Overview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="3260" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="5520" yWindow="20" windowWidth="21920" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="465">
   <si>
     <t>bad_hop.down.cabin</t>
   </si>
@@ -162,9 +162,6 @@
     <t>carpet.front.clock</t>
   </si>
   <si>
-    <t>carpet.into.tower</t>
-  </si>
-  <si>
     <t>carpet.over.tiger</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>crabwalk.between.lights</t>
   </si>
   <si>
-    <t>crabwalk.btw.lights</t>
-  </si>
-  <si>
     <t>crabwalk.down.birdhouse</t>
   </si>
   <si>
@@ -363,12 +357,6 @@
     <t>drive.front.horse</t>
   </si>
   <si>
-    <t>drive.into.garage</t>
-  </si>
-  <si>
-    <t>drive.into.house</t>
-  </si>
-  <si>
     <t>drive.over.cone</t>
   </si>
   <si>
@@ -501,9 +489,6 @@
     <t>hop.around.penguin</t>
   </si>
   <si>
-    <t>hop.between.islands</t>
-  </si>
-  <si>
     <t>hop.between.mountains</t>
   </si>
   <si>
@@ -990,18 +975,12 @@
     <t>wrench.rip.tablecloth</t>
   </si>
   <si>
-    <t>Sentence</t>
-  </si>
-  <si>
     <t>Manner</t>
   </si>
   <si>
     <t>Path</t>
   </si>
   <si>
-    <t>VerbName</t>
-  </si>
-  <si>
     <t>made up</t>
   </si>
   <si>
@@ -1020,16 +999,421 @@
     <t>between</t>
   </si>
   <si>
-    <t>a girl hot-air balloons between hills</t>
-  </si>
-  <si>
-    <t>Instrument</t>
-  </si>
-  <si>
-    <t>MovieName(=instrument.path.ground)</t>
-  </si>
-  <si>
     <t>means-effect</t>
+  </si>
+  <si>
+    <t>bike</t>
+  </si>
+  <si>
+    <t>camel</t>
+  </si>
+  <si>
+    <t>Instrument/Manner</t>
+  </si>
+  <si>
+    <t>MovieName(=instrument/manner.path.ground)</t>
+  </si>
+  <si>
+    <t>carpet</t>
+  </si>
+  <si>
+    <t>crabwalk</t>
+  </si>
+  <si>
+    <t>crawl</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>flapwalk</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>hop</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>sail</t>
+  </si>
+  <si>
+    <t>skate</t>
+  </si>
+  <si>
+    <t>ski</t>
+  </si>
+  <si>
+    <t>sled</t>
+  </si>
+  <si>
+    <t>stoopwalk</t>
+  </si>
+  <si>
+    <t>tiptoe</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>into</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>through</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>a girl hot-air balloons down to the dog</t>
+  </si>
+  <si>
+    <t>Sentence (should we use def or indef?)</t>
+  </si>
+  <si>
+    <t>a girl hot-air balloons down to the totem</t>
+  </si>
+  <si>
+    <t>a girl hot-air balloons in front of the sunflowers</t>
+  </si>
+  <si>
+    <t>a girl hot-air balloons between the hills</t>
+  </si>
+  <si>
+    <t>a girl hot-air balloons into the tree</t>
+  </si>
+  <si>
+    <t>a girl hot-air balloons over the eagle</t>
+  </si>
+  <si>
+    <t>a girl hot-air balloons over the plane</t>
+  </si>
+  <si>
+    <t>a girl hot-air balloons through the sunflowers</t>
+  </si>
+  <si>
+    <t>a girl hot-air balloons through smokestack</t>
+  </si>
+  <si>
+    <t>a girl hot-air balloons up to the haystack</t>
+  </si>
+  <si>
+    <t>a girl hot-air balloons up to the train</t>
+  </si>
+  <si>
+    <t>only 1 instance?</t>
+  </si>
+  <si>
+    <t>bikes</t>
+  </si>
+  <si>
+    <t>gossing</t>
+  </si>
+  <si>
+    <t>molking</t>
+  </si>
+  <si>
+    <t>VerbName (that Amy used)</t>
+  </si>
+  <si>
+    <t>the man bikes around the birdhouse</t>
+  </si>
+  <si>
+    <t>the man bikes between the mailboxes</t>
+  </si>
+  <si>
+    <t>the man bikes down to the clown</t>
+  </si>
+  <si>
+    <t>the man bikes into the truck</t>
+  </si>
+  <si>
+    <t>the man camels around the goat</t>
+  </si>
+  <si>
+    <t>the man camels behind the cactus</t>
+  </si>
+  <si>
+    <t>camels</t>
+  </si>
+  <si>
+    <t>the man camels between the trees</t>
+  </si>
+  <si>
+    <t>the man camels in front of the pyramid</t>
+  </si>
+  <si>
+    <t>the man camels into the castle</t>
+  </si>
+  <si>
+    <t>the man camels over the sanddune</t>
+  </si>
+  <si>
+    <t>the man camels through the oasis</t>
+  </si>
+  <si>
+    <t>the man camels up to the palmtree</t>
+  </si>
+  <si>
+    <t>the man carpets around the drum</t>
+  </si>
+  <si>
+    <t>carpets</t>
+  </si>
+  <si>
+    <t>the man carpets between the thrones OR THRONE</t>
+  </si>
+  <si>
+    <t>the man carpets down to the lamp</t>
+  </si>
+  <si>
+    <t>the man carpets in front of the clock</t>
+  </si>
+  <si>
+    <t>carpet.into.tower SAME AS CLOCK</t>
+  </si>
+  <si>
+    <t>the man carpets over the tiger</t>
+  </si>
+  <si>
+    <t>the man carpets through the garden OR ROSES</t>
+  </si>
+  <si>
+    <t>the man carpets under the table</t>
+  </si>
+  <si>
+    <t>the man carpets up to the monkey</t>
+  </si>
+  <si>
+    <t>glipping</t>
+  </si>
+  <si>
+    <t>the monster crabwalks around the firehouse</t>
+  </si>
+  <si>
+    <t>crabwalks</t>
+  </si>
+  <si>
+    <t>krading</t>
+  </si>
+  <si>
+    <t>the monster crabwalks between the lights</t>
+  </si>
+  <si>
+    <t>crabwalk.btw.lights SAME</t>
+  </si>
+  <si>
+    <t>the monster crabwalks down to the birdhouse</t>
+  </si>
+  <si>
+    <t>the monster crabwalks down to the owl</t>
+  </si>
+  <si>
+    <t>the monster crabwalks down to the train</t>
+  </si>
+  <si>
+    <t>the monster crabwalks in front of the bell</t>
+  </si>
+  <si>
+    <t>the monster crabwalks in front of the horse</t>
+  </si>
+  <si>
+    <t>the monster crabwalks into the garage</t>
+  </si>
+  <si>
+    <t>the monster crabwalks over the tires</t>
+  </si>
+  <si>
+    <t>the monster crabwalks through the tunnel</t>
+  </si>
+  <si>
+    <t>the monster crabwalks up to the cat</t>
+  </si>
+  <si>
+    <t>the monster crabwalks up to the policebox</t>
+  </si>
+  <si>
+    <t>the monster crawls around the birdhouse</t>
+  </si>
+  <si>
+    <t>crawls</t>
+  </si>
+  <si>
+    <t>the monster crawls down to the clown</t>
+  </si>
+  <si>
+    <t>the monster crawls between the mailboxes</t>
+  </si>
+  <si>
+    <t>the monster crawls down to the owl</t>
+  </si>
+  <si>
+    <t>the monster crawls in front of the bench</t>
+  </si>
+  <si>
+    <t>the monster crawls into the cave</t>
+  </si>
+  <si>
+    <t>the monster crawls over the mountain</t>
+  </si>
+  <si>
+    <t>the monster crawls through the pyramid</t>
+  </si>
+  <si>
+    <t>the monster crawls up to the bus</t>
+  </si>
+  <si>
+    <t>the monster crawls up to the scarecrow</t>
+  </si>
+  <si>
+    <t>the monster crawls up to the swan</t>
+  </si>
+  <si>
+    <t>the man drives around the firehouse</t>
+  </si>
+  <si>
+    <t>drives</t>
+  </si>
+  <si>
+    <t>the man drives behind the windmill</t>
+  </si>
+  <si>
+    <t>the man drives between the lights</t>
+  </si>
+  <si>
+    <t>the man drives in front of the horse</t>
+  </si>
+  <si>
+    <t>drive.into.garage THIS IS .FLA</t>
+  </si>
+  <si>
+    <t>the man drives into the house</t>
+  </si>
+  <si>
+    <t>drive.into.house THIS IS MORE GARAGE?</t>
+  </si>
+  <si>
+    <t>the man drives over the cone</t>
+  </si>
+  <si>
+    <t>the man drives through the tunnel</t>
+  </si>
+  <si>
+    <t>the man drives under the train</t>
+  </si>
+  <si>
+    <t>the man drives up to the cat</t>
+  </si>
+  <si>
+    <t>the monster flapwalks around the fire</t>
+  </si>
+  <si>
+    <t>flapwalks</t>
+  </si>
+  <si>
+    <t>the monster flapwalks around the goat</t>
+  </si>
+  <si>
+    <t>the monster flapwalks around the horse</t>
+  </si>
+  <si>
+    <t>the monster flapwalks between seesaws</t>
+  </si>
+  <si>
+    <t>the monster flapwalks down to the frog</t>
+  </si>
+  <si>
+    <t>the monster flapwalks down to the seesaw</t>
+  </si>
+  <si>
+    <t>the monster flapwalks in front of a penguin</t>
+  </si>
+  <si>
+    <t>the monster flapwalks into the igloo</t>
+  </si>
+  <si>
+    <t>the monster flapwalks over the float</t>
+  </si>
+  <si>
+    <t>the monster flapwalks over the plane</t>
+  </si>
+  <si>
+    <t>the monster flapwalks through the waterfall</t>
+  </si>
+  <si>
+    <t>the monster flapwalks up to the cat</t>
+  </si>
+  <si>
+    <t>the man flies around the fountain</t>
+  </si>
+  <si>
+    <t>hop.between.islands MAYBE NOT CLEAR ENOUGH</t>
+  </si>
+  <si>
+    <t>zarking</t>
+  </si>
+  <si>
+    <t>dacking</t>
+  </si>
+  <si>
+    <t>dacking around the penguin</t>
+  </si>
+  <si>
+    <t>pimming</t>
+  </si>
+  <si>
+    <t>the man is pimming between the trees</t>
+  </si>
+  <si>
+    <t>torging</t>
+  </si>
+  <si>
+    <t>the girl is molking over the eagle</t>
+  </si>
+  <si>
+    <t>the monster is krading into the garage</t>
+  </si>
+  <si>
+    <t>the monster is zarking up to the cat</t>
+  </si>
+  <si>
+    <t>the monster is molking around the penguin</t>
+  </si>
+  <si>
+    <t>the monster is torging between the trees</t>
+  </si>
+  <si>
+    <t>the monster is pimming through the flowers</t>
+  </si>
+  <si>
+    <t>birking</t>
+  </si>
+  <si>
+    <t>the monster is birking over the cone</t>
+  </si>
+  <si>
+    <t>the monster is dacking in front of the elephant</t>
+  </si>
+  <si>
+    <t>NewSentence?</t>
   </si>
 </sst>
 </file>
@@ -1061,12 +1445,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1078,17 +1480,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1418,10 +1827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F325"/>
+  <dimension ref="A1:G325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1432,1709 +1841,3355 @@
     <col min="5" max="5" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C1" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="D1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>324</v>
-      </c>
-      <c r="E1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>331</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>322</v>
+      </c>
+      <c r="F3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="D4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>325</v>
+      </c>
+      <c r="F4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="C7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="C8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="C10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="C12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="C13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" t="s">
+      <c r="C14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="B16" t="s">
+    <row r="16" spans="1:7">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>327</v>
+      </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" t="s">
+        <v>371</v>
+      </c>
+      <c r="D33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>327</v>
+      </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" t="s">
+        <v>372</v>
+      </c>
+      <c r="D34" t="s">
+        <v>367</v>
+      </c>
+      <c r="E34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>327</v>
+      </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
+      <c r="C35" t="s">
+        <v>373</v>
+      </c>
+      <c r="D35" t="s">
+        <v>367</v>
+      </c>
+      <c r="E35" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>327</v>
+      </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
+      <c r="C36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D36" t="s">
+        <v>367</v>
+      </c>
+      <c r="E36" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>328</v>
+      </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
+      <c r="C37" t="s">
+        <v>375</v>
+      </c>
+      <c r="D37" t="s">
+        <v>377</v>
+      </c>
+      <c r="E37" t="s">
+        <v>322</v>
+      </c>
+      <c r="F37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>328</v>
+      </c>
       <c r="B38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="2:2">
+      <c r="C38" t="s">
+        <v>376</v>
+      </c>
+      <c r="D38" t="s">
+        <v>377</v>
+      </c>
+      <c r="E38" t="s">
+        <v>352</v>
+      </c>
+      <c r="F38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>328</v>
+      </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
+      <c r="C39" t="s">
+        <v>378</v>
+      </c>
+      <c r="D39" t="s">
+        <v>377</v>
+      </c>
+      <c r="E39" t="s">
+        <v>325</v>
+      </c>
+      <c r="F39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>328</v>
+      </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="2:2">
+      <c r="C40" t="s">
+        <v>379</v>
+      </c>
+      <c r="D40" t="s">
+        <v>377</v>
+      </c>
+      <c r="E40" t="s">
+        <v>347</v>
+      </c>
+      <c r="F40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>328</v>
+      </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="2:2">
+      <c r="C41" t="s">
+        <v>380</v>
+      </c>
+      <c r="D41" t="s">
+        <v>377</v>
+      </c>
+      <c r="E41" t="s">
+        <v>348</v>
+      </c>
+      <c r="F41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>328</v>
+      </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="2:2">
+      <c r="C42" t="s">
+        <v>381</v>
+      </c>
+      <c r="D42" t="s">
+        <v>377</v>
+      </c>
+      <c r="E42" t="s">
+        <v>349</v>
+      </c>
+      <c r="F42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>328</v>
+      </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
+      <c r="C43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D43" t="s">
+        <v>377</v>
+      </c>
+      <c r="E43" t="s">
+        <v>350</v>
+      </c>
+      <c r="F43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>328</v>
+      </c>
       <c r="B44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
+      <c r="C44" t="s">
+        <v>383</v>
+      </c>
+      <c r="D44" t="s">
+        <v>377</v>
+      </c>
+      <c r="E44" t="s">
+        <v>351</v>
+      </c>
+      <c r="F44" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>331</v>
+      </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
+      <c r="C45" t="s">
+        <v>384</v>
+      </c>
+      <c r="D45" t="s">
+        <v>385</v>
+      </c>
+      <c r="E45" t="s">
+        <v>322</v>
+      </c>
+      <c r="F45" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>331</v>
+      </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="2:2">
+      <c r="C46" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D46" t="s">
+        <v>385</v>
+      </c>
+      <c r="E46" t="s">
+        <v>325</v>
+      </c>
+      <c r="F46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>331</v>
+      </c>
       <c r="B47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="2:2">
+      <c r="C47" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D47" t="s">
+        <v>385</v>
+      </c>
+      <c r="E47" t="s">
+        <v>346</v>
+      </c>
+      <c r="F47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>331</v>
+      </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+      <c r="C48" t="s">
+        <v>388</v>
+      </c>
+      <c r="D48" t="s">
+        <v>385</v>
+      </c>
+      <c r="E48" t="s">
+        <v>347</v>
+      </c>
+      <c r="F48" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>331</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D49" t="s">
+        <v>385</v>
+      </c>
+      <c r="E49" t="s">
+        <v>348</v>
+      </c>
+      <c r="F49" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>390</v>
+      </c>
+      <c r="D50" t="s">
+        <v>385</v>
+      </c>
+      <c r="E50" t="s">
+        <v>349</v>
+      </c>
+      <c r="F50" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>331</v>
+      </c>
+      <c r="B51" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
+      <c r="C51" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D51" t="s">
+        <v>385</v>
+      </c>
+      <c r="E51" t="s">
+        <v>350</v>
+      </c>
+      <c r="F51" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>331</v>
+      </c>
+      <c r="B52" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>392</v>
+      </c>
+      <c r="D52" t="s">
+        <v>385</v>
+      </c>
+      <c r="E52" t="s">
+        <v>353</v>
+      </c>
+      <c r="F52" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>331</v>
+      </c>
+      <c r="B53" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>393</v>
+      </c>
+      <c r="D53" t="s">
+        <v>385</v>
+      </c>
+      <c r="E53" t="s">
+        <v>351</v>
+      </c>
+      <c r="F53" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="B54" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
+    <row r="55" spans="1:6">
+      <c r="B55" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
+    <row r="56" spans="1:6">
+      <c r="B56" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
+    <row r="57" spans="1:6">
+      <c r="B57" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
+    <row r="58" spans="1:6">
+      <c r="B58" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
+    <row r="59" spans="1:6">
+      <c r="B59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
+    <row r="60" spans="1:6">
+      <c r="B60" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
+    <row r="61" spans="1:6">
+      <c r="B61" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
+    <row r="62" spans="1:6">
+      <c r="B62" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
+    <row r="63" spans="1:6">
+      <c r="B63" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
+    <row r="64" spans="1:6">
+      <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
+    <row r="65" spans="1:7">
+      <c r="B65" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
+    <row r="66" spans="1:7">
+      <c r="B66" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
+    <row r="67" spans="1:7">
+      <c r="B67" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
+    <row r="68" spans="1:7">
+      <c r="B68" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
+    <row r="69" spans="1:7">
+      <c r="B69" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
+    <row r="70" spans="1:7">
+      <c r="B70" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>332</v>
+      </c>
+      <c r="B71" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>395</v>
+      </c>
+      <c r="D71" t="s">
+        <v>396</v>
+      </c>
+      <c r="E71" t="s">
+        <v>322</v>
+      </c>
+      <c r="F71" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>332</v>
+      </c>
+      <c r="B72" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>398</v>
+      </c>
+      <c r="D72" t="s">
+        <v>396</v>
+      </c>
+      <c r="E72" t="s">
+        <v>325</v>
+      </c>
+      <c r="F72" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>332</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D73" t="s">
+        <v>396</v>
+      </c>
+      <c r="E73" t="s">
+        <v>325</v>
+      </c>
+      <c r="F73" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>332</v>
+      </c>
+      <c r="B74" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
+      <c r="C74" t="s">
+        <v>400</v>
+      </c>
+      <c r="D74" t="s">
+        <v>396</v>
+      </c>
+      <c r="E74" t="s">
+        <v>346</v>
+      </c>
+      <c r="F74" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>332</v>
+      </c>
+      <c r="B75" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" t="s">
+      <c r="C75" t="s">
+        <v>401</v>
+      </c>
+      <c r="D75" t="s">
+        <v>396</v>
+      </c>
+      <c r="E75" t="s">
+        <v>346</v>
+      </c>
+      <c r="F75" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>332</v>
+      </c>
+      <c r="B76" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
+      <c r="C76" t="s">
+        <v>402</v>
+      </c>
+      <c r="D76" t="s">
+        <v>396</v>
+      </c>
+      <c r="E76" t="s">
+        <v>346</v>
+      </c>
+      <c r="F76" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>332</v>
+      </c>
+      <c r="B77" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" t="s">
+      <c r="C77" t="s">
+        <v>403</v>
+      </c>
+      <c r="D77" t="s">
+        <v>396</v>
+      </c>
+      <c r="E77" t="s">
+        <v>347</v>
+      </c>
+      <c r="F77" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>332</v>
+      </c>
+      <c r="B78" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
+      <c r="C78" t="s">
+        <v>404</v>
+      </c>
+      <c r="D78" t="s">
+        <v>396</v>
+      </c>
+      <c r="E78" t="s">
+        <v>347</v>
+      </c>
+      <c r="F78" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>332</v>
+      </c>
+      <c r="B79" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
+      <c r="C79" t="s">
+        <v>405</v>
+      </c>
+      <c r="D79" t="s">
+        <v>396</v>
+      </c>
+      <c r="E79" t="s">
+        <v>348</v>
+      </c>
+      <c r="F79" t="s">
+        <v>397</v>
+      </c>
+      <c r="G79" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>332</v>
+      </c>
+      <c r="B80" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
+      <c r="C80" t="s">
+        <v>406</v>
+      </c>
+      <c r="D80" t="s">
+        <v>396</v>
+      </c>
+      <c r="E80" t="s">
+        <v>349</v>
+      </c>
+      <c r="F80" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>332</v>
+      </c>
+      <c r="B81" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
+      <c r="C81" t="s">
+        <v>407</v>
+      </c>
+      <c r="D81" t="s">
+        <v>396</v>
+      </c>
+      <c r="E81" t="s">
+        <v>350</v>
+      </c>
+      <c r="F81" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>332</v>
+      </c>
+      <c r="B82" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
+      <c r="C82" t="s">
+        <v>408</v>
+      </c>
+      <c r="D82" t="s">
+        <v>396</v>
+      </c>
+      <c r="E82" t="s">
+        <v>351</v>
+      </c>
+      <c r="F82" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>332</v>
+      </c>
+      <c r="B83" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
+      <c r="C83" t="s">
+        <v>409</v>
+      </c>
+      <c r="D83" t="s">
+        <v>396</v>
+      </c>
+      <c r="E83" t="s">
+        <v>351</v>
+      </c>
+      <c r="F83" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>333</v>
+      </c>
+      <c r="B84" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
+      <c r="C84" t="s">
+        <v>410</v>
+      </c>
+      <c r="D84" t="s">
+        <v>411</v>
+      </c>
+      <c r="E84" t="s">
+        <v>322</v>
+      </c>
+      <c r="F84" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>333</v>
+      </c>
+      <c r="B85" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" t="s">
+      <c r="C85" t="s">
+        <v>413</v>
+      </c>
+      <c r="D85" t="s">
+        <v>411</v>
+      </c>
+      <c r="E85" t="s">
+        <v>325</v>
+      </c>
+      <c r="F85" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>333</v>
+      </c>
+      <c r="B86" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" t="s">
+      <c r="C86" t="s">
+        <v>412</v>
+      </c>
+      <c r="D86" t="s">
+        <v>411</v>
+      </c>
+      <c r="E86" t="s">
+        <v>346</v>
+      </c>
+      <c r="F86" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>333</v>
+      </c>
+      <c r="B87" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" t="s">
+      <c r="C87" t="s">
+        <v>414</v>
+      </c>
+      <c r="D87" t="s">
+        <v>411</v>
+      </c>
+      <c r="E87" t="s">
+        <v>346</v>
+      </c>
+      <c r="F87" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>333</v>
+      </c>
+      <c r="B88" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" t="s">
+      <c r="C88" t="s">
+        <v>415</v>
+      </c>
+      <c r="D88" t="s">
+        <v>411</v>
+      </c>
+      <c r="E88" t="s">
+        <v>347</v>
+      </c>
+      <c r="F88" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>333</v>
+      </c>
+      <c r="B89" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
+      <c r="C89" t="s">
+        <v>416</v>
+      </c>
+      <c r="D89" t="s">
+        <v>411</v>
+      </c>
+      <c r="E89" t="s">
+        <v>348</v>
+      </c>
+      <c r="F89" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>333</v>
+      </c>
+      <c r="B90" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" t="s">
+      <c r="C90" t="s">
+        <v>417</v>
+      </c>
+      <c r="D90" t="s">
+        <v>411</v>
+      </c>
+      <c r="E90" t="s">
+        <v>349</v>
+      </c>
+      <c r="F90" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>333</v>
+      </c>
+      <c r="B91" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
+      <c r="C91" t="s">
+        <v>418</v>
+      </c>
+      <c r="D91" t="s">
+        <v>411</v>
+      </c>
+      <c r="E91" t="s">
+        <v>350</v>
+      </c>
+      <c r="F91" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>333</v>
+      </c>
+      <c r="B92" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
+      <c r="C92" t="s">
+        <v>419</v>
+      </c>
+      <c r="D92" t="s">
+        <v>411</v>
+      </c>
+      <c r="E92" t="s">
+        <v>351</v>
+      </c>
+      <c r="F92" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>333</v>
+      </c>
+      <c r="B93" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
+      <c r="C93" t="s">
+        <v>420</v>
+      </c>
+      <c r="D93" t="s">
+        <v>411</v>
+      </c>
+      <c r="E93" t="s">
+        <v>351</v>
+      </c>
+      <c r="F93" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>333</v>
+      </c>
+      <c r="B94" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" t="s">
+      <c r="C94" t="s">
+        <v>421</v>
+      </c>
+      <c r="D94" t="s">
+        <v>411</v>
+      </c>
+      <c r="E94" t="s">
+        <v>351</v>
+      </c>
+      <c r="F94" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="B95" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
+    <row r="96" spans="1:6">
+      <c r="B96" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
-      <c r="B95" t="s">
+    <row r="97" spans="2:2">
+      <c r="B97" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
-      <c r="B96" t="s">
+    <row r="98" spans="2:2">
+      <c r="B98" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
+    <row r="99" spans="2:2">
+      <c r="B99" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
+    <row r="100" spans="2:2">
+      <c r="B100" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
-      <c r="B99" t="s">
+    <row r="101" spans="2:2">
+      <c r="B101" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
+    <row r="102" spans="2:2">
+      <c r="B102" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
-      <c r="B101" t="s">
+    <row r="103" spans="2:2">
+      <c r="B103" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" t="s">
+    <row r="104" spans="2:2">
+      <c r="B104" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
-      <c r="B103" t="s">
+    <row r="105" spans="2:2">
+      <c r="B105" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
-      <c r="B104" t="s">
+    <row r="106" spans="2:2">
+      <c r="B106" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
-      <c r="B105" t="s">
+    <row r="107" spans="2:2">
+      <c r="B107" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
-      <c r="B106" t="s">
+    <row r="108" spans="2:2">
+      <c r="B108" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
-      <c r="B107" t="s">
+    <row r="109" spans="2:2">
+      <c r="B109" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
-      <c r="B108" t="s">
+    <row r="111" spans="2:2">
+      <c r="B111" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
-      <c r="B109" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" t="s">
+    <row r="112" spans="2:2">
+      <c r="B112" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
-      <c r="B111" t="s">
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>334</v>
+      </c>
+      <c r="B113" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" t="s">
+      <c r="C113" t="s">
+        <v>422</v>
+      </c>
+      <c r="D113" t="s">
+        <v>423</v>
+      </c>
+      <c r="E113" t="s">
+        <v>322</v>
+      </c>
+      <c r="F113" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>334</v>
+      </c>
+      <c r="B114" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" t="s">
+      <c r="C114" t="s">
+        <v>424</v>
+      </c>
+      <c r="D114" t="s">
+        <v>423</v>
+      </c>
+      <c r="E114" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>334</v>
+      </c>
+      <c r="B115" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" t="s">
+      <c r="C115" t="s">
+        <v>425</v>
+      </c>
+      <c r="D115" t="s">
+        <v>423</v>
+      </c>
+      <c r="E115" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>334</v>
+      </c>
+      <c r="B116" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" t="s">
+      <c r="C116" t="s">
+        <v>426</v>
+      </c>
+      <c r="D116" t="s">
+        <v>423</v>
+      </c>
+      <c r="E116" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>334</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D117" t="s">
+        <v>423</v>
+      </c>
+      <c r="E117" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>334</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C118" t="s">
+        <v>428</v>
+      </c>
+      <c r="D118" t="s">
+        <v>423</v>
+      </c>
+      <c r="E118" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>334</v>
+      </c>
+      <c r="B119" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" t="s">
+      <c r="C119" t="s">
+        <v>430</v>
+      </c>
+      <c r="D119" t="s">
+        <v>423</v>
+      </c>
+      <c r="E119" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>334</v>
+      </c>
+      <c r="B120" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" t="s">
+      <c r="C120" t="s">
+        <v>431</v>
+      </c>
+      <c r="D120" t="s">
+        <v>423</v>
+      </c>
+      <c r="E120" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>334</v>
+      </c>
+      <c r="B121" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" t="s">
+      <c r="C121" t="s">
+        <v>432</v>
+      </c>
+      <c r="D121" t="s">
+        <v>423</v>
+      </c>
+      <c r="E121" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>334</v>
+      </c>
+      <c r="B122" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" t="s">
+      <c r="C122" t="s">
+        <v>433</v>
+      </c>
+      <c r="D122" t="s">
+        <v>423</v>
+      </c>
+      <c r="E122" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>335</v>
+      </c>
+      <c r="B123" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" t="s">
+      <c r="C123" t="s">
+        <v>434</v>
+      </c>
+      <c r="D123" t="s">
+        <v>435</v>
+      </c>
+      <c r="E123" t="s">
+        <v>322</v>
+      </c>
+      <c r="F123" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>335</v>
+      </c>
+      <c r="B124" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" t="s">
+      <c r="C124" t="s">
+        <v>436</v>
+      </c>
+      <c r="D124" t="s">
+        <v>435</v>
+      </c>
+      <c r="E124" t="s">
+        <v>322</v>
+      </c>
+      <c r="F124" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>335</v>
+      </c>
+      <c r="B125" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" t="s">
+      <c r="C125" t="s">
+        <v>437</v>
+      </c>
+      <c r="D125" t="s">
+        <v>435</v>
+      </c>
+      <c r="E125" t="s">
+        <v>322</v>
+      </c>
+      <c r="F125" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>335</v>
+      </c>
+      <c r="B126" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" t="s">
+      <c r="C126" t="s">
+        <v>437</v>
+      </c>
+      <c r="D126" t="s">
+        <v>435</v>
+      </c>
+      <c r="E126" t="s">
+        <v>322</v>
+      </c>
+      <c r="F126" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>335</v>
+      </c>
+      <c r="B127" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" t="s">
+      <c r="C127" t="s">
+        <v>438</v>
+      </c>
+      <c r="D127" t="s">
+        <v>435</v>
+      </c>
+      <c r="E127" t="s">
+        <v>325</v>
+      </c>
+      <c r="F127" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>335</v>
+      </c>
+      <c r="B128" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" t="s">
+      <c r="C128" t="s">
+        <v>439</v>
+      </c>
+      <c r="D128" t="s">
+        <v>435</v>
+      </c>
+      <c r="E128" t="s">
+        <v>346</v>
+      </c>
+      <c r="F128" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>335</v>
+      </c>
+      <c r="B129" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" t="s">
+      <c r="C129" t="s">
+        <v>440</v>
+      </c>
+      <c r="D129" t="s">
+        <v>435</v>
+      </c>
+      <c r="E129" t="s">
+        <v>346</v>
+      </c>
+      <c r="F129" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>335</v>
+      </c>
+      <c r="B130" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" t="s">
+      <c r="C130" t="s">
+        <v>441</v>
+      </c>
+      <c r="D130" t="s">
+        <v>435</v>
+      </c>
+      <c r="E130" t="s">
+        <v>347</v>
+      </c>
+      <c r="F130" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>335</v>
+      </c>
+      <c r="B131" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" t="s">
+      <c r="C131" t="s">
+        <v>442</v>
+      </c>
+      <c r="D131" t="s">
+        <v>435</v>
+      </c>
+      <c r="E131" t="s">
+        <v>348</v>
+      </c>
+      <c r="F131" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>335</v>
+      </c>
+      <c r="B132" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" t="s">
+      <c r="C132" t="s">
+        <v>443</v>
+      </c>
+      <c r="D132" t="s">
+        <v>435</v>
+      </c>
+      <c r="E132" t="s">
+        <v>349</v>
+      </c>
+      <c r="F132" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>335</v>
+      </c>
+      <c r="B133" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" t="s">
+      <c r="C133" t="s">
+        <v>444</v>
+      </c>
+      <c r="D133" t="s">
+        <v>435</v>
+      </c>
+      <c r="E133" t="s">
+        <v>349</v>
+      </c>
+      <c r="F133" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>335</v>
+      </c>
+      <c r="B134" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" t="s">
+      <c r="C134" t="s">
+        <v>445</v>
+      </c>
+      <c r="D134" t="s">
+        <v>435</v>
+      </c>
+      <c r="E134" t="s">
+        <v>350</v>
+      </c>
+      <c r="F134" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>335</v>
+      </c>
+      <c r="B135" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" t="s">
+      <c r="C135" t="s">
+        <v>446</v>
+      </c>
+      <c r="D135" t="s">
+        <v>435</v>
+      </c>
+      <c r="E135" t="s">
+        <v>351</v>
+      </c>
+      <c r="F135" t="s">
+        <v>449</v>
+      </c>
+      <c r="G135" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>336</v>
+      </c>
+      <c r="B136" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" t="s">
+      <c r="C136" t="s">
+        <v>447</v>
+      </c>
+      <c r="F136" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>336</v>
+      </c>
+      <c r="B137" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" t="s">
+      <c r="F137" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>336</v>
+      </c>
+      <c r="B138" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" t="s">
+      <c r="F138" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>336</v>
+      </c>
+      <c r="B139" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" t="s">
+      <c r="F139" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>336</v>
+      </c>
+      <c r="B140" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" t="s">
+      <c r="F140" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>336</v>
+      </c>
+      <c r="B141" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" t="s">
+      <c r="F141" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>336</v>
+      </c>
+      <c r="B142" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" t="s">
+      <c r="F142" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>336</v>
+      </c>
+      <c r="B143" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" t="s">
+      <c r="F143" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>336</v>
+      </c>
+      <c r="B144" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" t="s">
+      <c r="F144" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>336</v>
+      </c>
+      <c r="B145" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" t="s">
+      <c r="F145" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="B146" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
-      <c r="B143" t="s">
+    <row r="147" spans="1:6">
+      <c r="B147" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
-      <c r="B144" t="s">
+    <row r="148" spans="1:6">
+      <c r="B148" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
-      <c r="B145" t="s">
+    <row r="149" spans="1:6">
+      <c r="B149" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
-      <c r="B146" t="s">
+    <row r="150" spans="1:6">
+      <c r="B150" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
-      <c r="B147" t="s">
+    <row r="151" spans="1:6">
+      <c r="B151" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
-      <c r="B148" t="s">
+    <row r="152" spans="1:6">
+      <c r="B152" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" t="s">
+    <row r="153" spans="1:6">
+      <c r="B153" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" t="s">
+    <row r="154" spans="1:6">
+      <c r="B154" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
-      <c r="B151" t="s">
+    <row r="155" spans="1:6">
+      <c r="B155" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
-      <c r="B152" t="s">
+    <row r="156" spans="1:6">
+      <c r="B156" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="2:2">
-      <c r="B153" t="s">
+    <row r="157" spans="1:6">
+      <c r="B157" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
-      <c r="B154" t="s">
+    <row r="158" spans="1:6">
+      <c r="B158" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
-      <c r="B155" t="s">
+    <row r="159" spans="1:6">
+      <c r="B159" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
-      <c r="B156" t="s">
+    <row r="160" spans="1:6">
+      <c r="B160" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
-      <c r="B157" t="s">
+    <row r="161" spans="1:7">
+      <c r="B161" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
-      <c r="B158" t="s">
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>337</v>
+      </c>
+      <c r="B162" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159" t="s">
+      <c r="F162" t="s">
+        <v>369</v>
+      </c>
+      <c r="G162" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>337</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F163" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>337</v>
+      </c>
+      <c r="B164" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="160" spans="2:2">
-      <c r="B160" t="s">
+      <c r="F164" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>337</v>
+      </c>
+      <c r="B165" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" t="s">
+      <c r="F165" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>337</v>
+      </c>
+      <c r="B166" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" t="s">
+      <c r="F166" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>337</v>
+      </c>
+      <c r="B167" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" t="s">
+      <c r="F167" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>337</v>
+      </c>
+      <c r="B168" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" t="s">
+      <c r="F168" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>337</v>
+      </c>
+      <c r="B169" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" t="s">
+      <c r="F169" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>337</v>
+      </c>
+      <c r="B170" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" t="s">
+      <c r="F170" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" t="s">
+      <c r="F171" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>337</v>
+      </c>
+      <c r="B172" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168" t="s">
+      <c r="F172" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>337</v>
+      </c>
+      <c r="B173" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" t="s">
+      <c r="F173" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="B174" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
-      <c r="B170" t="s">
+    <row r="175" spans="1:7">
+      <c r="B175" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
-      <c r="B171" t="s">
+    <row r="176" spans="1:7">
+      <c r="B176" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
-      <c r="B172" t="s">
+    <row r="177" spans="2:2">
+      <c r="B177" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
-      <c r="B173" t="s">
+    <row r="178" spans="2:2">
+      <c r="B178" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
-      <c r="B174" t="s">
+    <row r="179" spans="2:2">
+      <c r="B179" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="2:2">
-      <c r="B175" t="s">
+    <row r="180" spans="2:2">
+      <c r="B180" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="2:2">
-      <c r="B176" t="s">
+    <row r="181" spans="2:2">
+      <c r="B181" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
-      <c r="B177" t="s">
+    <row r="182" spans="2:2">
+      <c r="B182" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
-      <c r="B178" t="s">
+    <row r="183" spans="2:2">
+      <c r="B183" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
-      <c r="B179" t="s">
+    <row r="184" spans="2:2">
+      <c r="B184" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="180" spans="2:2">
-      <c r="B180" t="s">
+    <row r="185" spans="2:2">
+      <c r="B185" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="2:2">
-      <c r="B181" t="s">
+    <row r="186" spans="2:2">
+      <c r="B186" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="2:2">
-      <c r="B182" t="s">
+    <row r="187" spans="2:2">
+      <c r="B187" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="2:2">
-      <c r="B183" t="s">
+    <row r="188" spans="2:2">
+      <c r="B188" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="2:2">
-      <c r="B184" t="s">
+    <row r="189" spans="2:2">
+      <c r="B189" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
-      <c r="B185" t="s">
+    <row r="190" spans="2:2">
+      <c r="B190" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
-      <c r="B186" t="s">
+    <row r="191" spans="2:2">
+      <c r="B191" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
-      <c r="B187" t="s">
+    <row r="192" spans="2:2">
+      <c r="B192" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
-      <c r="B188" t="s">
+    <row r="193" spans="2:2">
+      <c r="B193" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
-      <c r="B189" t="s">
+    <row r="194" spans="2:2">
+      <c r="B194" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
-      <c r="B190" t="s">
+    <row r="195" spans="2:2">
+      <c r="B195" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
-      <c r="B191" t="s">
+    <row r="196" spans="2:2">
+      <c r="B196" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
-      <c r="B192" t="s">
+    <row r="197" spans="2:2">
+      <c r="B197" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
-      <c r="B193" t="s">
+    <row r="198" spans="2:2">
+      <c r="B198" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
-      <c r="B194" t="s">
+    <row r="199" spans="2:2">
+      <c r="B199" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
-      <c r="B195" t="s">
+    <row r="200" spans="2:2">
+      <c r="B200" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="196" spans="2:2">
-      <c r="B196" t="s">
+    <row r="201" spans="2:2">
+      <c r="B201" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="197" spans="2:2">
-      <c r="B197" t="s">
+    <row r="202" spans="2:2">
+      <c r="B202" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
-      <c r="B198" t="s">
+    <row r="203" spans="2:2">
+      <c r="B203" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="199" spans="2:2">
-      <c r="B199" t="s">
+    <row r="204" spans="2:2">
+      <c r="B204" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
-      <c r="B200" t="s">
+    <row r="205" spans="2:2">
+      <c r="B205" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="201" spans="2:2">
-      <c r="B201" t="s">
+    <row r="206" spans="2:2">
+      <c r="B206" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="202" spans="2:2">
-      <c r="B202" t="s">
+    <row r="207" spans="2:2">
+      <c r="B207" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="203" spans="2:2">
-      <c r="B203" t="s">
+    <row r="208" spans="2:2">
+      <c r="B208" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="2:2">
-      <c r="B204" t="s">
+    <row r="209" spans="1:7">
+      <c r="B209" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="205" spans="2:2">
-      <c r="B205" t="s">
+    <row r="210" spans="1:7">
+      <c r="B210" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="206" spans="2:2">
-      <c r="B206" t="s">
+    <row r="211" spans="1:7">
+      <c r="B211" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="207" spans="2:2">
-      <c r="B207" t="s">
+    <row r="212" spans="1:7">
+      <c r="B212" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="208" spans="2:2">
-      <c r="B208" t="s">
+    <row r="213" spans="1:7">
+      <c r="B213" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
-      <c r="B209" t="s">
+    <row r="214" spans="1:7">
+      <c r="B214" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
-      <c r="B210" t="s">
+    <row r="215" spans="1:7">
+      <c r="B215" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
-      <c r="B211" t="s">
+    <row r="216" spans="1:7">
+      <c r="B216" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
-      <c r="B212" t="s">
+    <row r="217" spans="1:7">
+      <c r="B217" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
-      <c r="B213" t="s">
+    <row r="218" spans="1:7">
+      <c r="B218" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
-      <c r="B214" t="s">
+    <row r="219" spans="1:7">
+      <c r="B219" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="215" spans="2:2">
-      <c r="B215" t="s">
+    <row r="220" spans="1:7">
+      <c r="B220" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="216" spans="2:2">
-      <c r="B216" t="s">
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>338</v>
+      </c>
+      <c r="B221" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="217" spans="2:2">
-      <c r="B217" t="s">
+      <c r="F221" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>338</v>
+      </c>
+      <c r="B222" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="218" spans="2:2">
-      <c r="B218" t="s">
+      <c r="F222" t="s">
+        <v>454</v>
+      </c>
+      <c r="G222" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>338</v>
+      </c>
+      <c r="B223" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="219" spans="2:2">
-      <c r="B219" t="s">
+      <c r="F223" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>338</v>
+      </c>
+      <c r="B224" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="220" spans="2:2">
-      <c r="B220" t="s">
+      <c r="F224" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>338</v>
+      </c>
+      <c r="B225" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="221" spans="2:2">
-      <c r="B221" t="s">
+      <c r="F225" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>338</v>
+      </c>
+      <c r="B226" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="222" spans="2:2">
-      <c r="B222" t="s">
+      <c r="F226" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>338</v>
+      </c>
+      <c r="B227" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="223" spans="2:2">
-      <c r="B223" t="s">
+      <c r="F227" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>338</v>
+      </c>
+      <c r="B228" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="224" spans="2:2">
-      <c r="B224" t="s">
+      <c r="F228" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>339</v>
+      </c>
+      <c r="B229" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="225" spans="2:2">
-      <c r="B225" t="s">
+      <c r="F229" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>339</v>
+      </c>
+      <c r="B230" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
-      <c r="B226" t="s">
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>339</v>
+      </c>
+      <c r="B231" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
-      <c r="B227" t="s">
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>339</v>
+      </c>
+      <c r="B232" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="228" spans="2:2">
-      <c r="B228" t="s">
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>339</v>
+      </c>
+      <c r="B233" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
-      <c r="B229" t="s">
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>339</v>
+      </c>
+      <c r="B234" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="230" spans="2:2">
-      <c r="B230" t="s">
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>339</v>
+      </c>
+      <c r="B235" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
-      <c r="B231" t="s">
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>339</v>
+      </c>
+      <c r="B236" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
-      <c r="B232" t="s">
+    <row r="237" spans="1:6">
+      <c r="B237" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="233" spans="2:2">
-      <c r="B233" t="s">
+    <row r="238" spans="1:6">
+      <c r="B238" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="234" spans="2:2">
-      <c r="B234" t="s">
+    <row r="239" spans="1:6">
+      <c r="B239" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
-      <c r="B235" t="s">
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>340</v>
+      </c>
+      <c r="B240" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
-      <c r="B236" t="s">
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>340</v>
+      </c>
+      <c r="B241" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
-      <c r="B237" t="s">
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>340</v>
+      </c>
+      <c r="B242" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="238" spans="2:2">
-      <c r="B238" t="s">
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>340</v>
+      </c>
+      <c r="B243" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="239" spans="2:2">
-      <c r="B239" t="s">
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>340</v>
+      </c>
+      <c r="B244" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="240" spans="2:2">
-      <c r="B240" t="s">
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>341</v>
+      </c>
+      <c r="B245" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="241" spans="2:2">
-      <c r="B241" t="s">
+      <c r="F245" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" t="s">
+        <v>341</v>
+      </c>
+      <c r="B246" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="242" spans="2:2">
-      <c r="B242" t="s">
+      <c r="F246" t="s">
+        <v>452</v>
+      </c>
+      <c r="G246" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>341</v>
+      </c>
+      <c r="B247" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="243" spans="2:2">
-      <c r="B243" t="s">
+      <c r="F247" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" t="s">
+        <v>341</v>
+      </c>
+      <c r="B248" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="244" spans="2:2">
-      <c r="B244" t="s">
+      <c r="F248" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>341</v>
+      </c>
+      <c r="B249" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="245" spans="2:2">
-      <c r="B245" t="s">
+      <c r="F249" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>341</v>
+      </c>
+      <c r="B250" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="246" spans="2:2">
-      <c r="B246" t="s">
+      <c r="F250" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>341</v>
+      </c>
+      <c r="B251" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="247" spans="2:2">
-      <c r="B247" t="s">
+      <c r="F251" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>341</v>
+      </c>
+      <c r="B252" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="248" spans="2:2">
-      <c r="B248" t="s">
+      <c r="F252" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>341</v>
+      </c>
+      <c r="B253" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="249" spans="2:2">
-      <c r="B249" t="s">
+      <c r="F253" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>342</v>
+      </c>
+      <c r="B254" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="250" spans="2:2">
-      <c r="B250" t="s">
+      <c r="F254" t="s">
+        <v>450</v>
+      </c>
+      <c r="G254" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>342</v>
+      </c>
+      <c r="B255" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="251" spans="2:2">
-      <c r="B251" t="s">
+      <c r="F255" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>342</v>
+      </c>
+      <c r="B256" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="252" spans="2:2">
-      <c r="B252" t="s">
+      <c r="F256" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>342</v>
+      </c>
+      <c r="B257" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="253" spans="2:2">
-      <c r="B253" t="s">
+      <c r="F257" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>342</v>
+      </c>
+      <c r="B258" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="254" spans="2:2">
-      <c r="B254" t="s">
+      <c r="F258" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>342</v>
+      </c>
+      <c r="B259" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="255" spans="2:2">
-      <c r="B255" t="s">
+      <c r="F259" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>342</v>
+      </c>
+      <c r="B260" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="256" spans="2:2">
-      <c r="B256" t="s">
+      <c r="F260" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>342</v>
+      </c>
+      <c r="B261" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="257" spans="2:2">
-      <c r="B257" t="s">
+      <c r="F261" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>342</v>
+      </c>
+      <c r="B262" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="258" spans="2:2">
-      <c r="B258" t="s">
+      <c r="F262" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>343</v>
+      </c>
+      <c r="B263" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="259" spans="2:2">
-      <c r="B259" t="s">
+      <c r="F263" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>343</v>
+      </c>
+      <c r="B264" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="260" spans="2:2">
-      <c r="B260" t="s">
+      <c r="F264" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>343</v>
+      </c>
+      <c r="B265" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="261" spans="2:2">
-      <c r="B261" t="s">
+      <c r="F265" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" t="s">
+        <v>343</v>
+      </c>
+      <c r="B266" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="262" spans="2:2">
-      <c r="B262" t="s">
+      <c r="F266" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>343</v>
+      </c>
+      <c r="B267" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="263" spans="2:2">
-      <c r="B263" t="s">
+      <c r="F267" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>343</v>
+      </c>
+      <c r="B268" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="264" spans="2:2">
-      <c r="B264" t="s">
+      <c r="F268" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>343</v>
+      </c>
+      <c r="B269" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="265" spans="2:2">
-      <c r="B265" t="s">
+      <c r="F269" t="s">
+        <v>452</v>
+      </c>
+      <c r="G269" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>343</v>
+      </c>
+      <c r="B270" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="266" spans="2:2">
-      <c r="B266" t="s">
+      <c r="F270" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>343</v>
+      </c>
+      <c r="B271" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="267" spans="2:2">
-      <c r="B267" t="s">
+      <c r="F271" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>344</v>
+      </c>
+      <c r="B272" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="268" spans="2:2">
-      <c r="B268" t="s">
+      <c r="F272" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>344</v>
+      </c>
+      <c r="B273" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="269" spans="2:2">
-      <c r="B269" t="s">
+      <c r="F273" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>344</v>
+      </c>
+      <c r="B274" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="270" spans="2:2">
-      <c r="B270" t="s">
+      <c r="F274" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>344</v>
+      </c>
+      <c r="B275" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="271" spans="2:2">
-      <c r="B271" t="s">
+      <c r="F275" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>344</v>
+      </c>
+      <c r="B276" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="272" spans="2:2">
-      <c r="B272" t="s">
+      <c r="F276" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>344</v>
+      </c>
+      <c r="B277" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="273" spans="2:2">
-      <c r="B273" t="s">
+      <c r="F277" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>344</v>
+      </c>
+      <c r="B278" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="274" spans="2:2">
-      <c r="B274" t="s">
+      <c r="F278" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>344</v>
+      </c>
+      <c r="B279" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="275" spans="2:2">
-      <c r="B275" t="s">
+      <c r="F279" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>344</v>
+      </c>
+      <c r="B280" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="276" spans="2:2">
-      <c r="B276" t="s">
+      <c r="F280" t="s">
+        <v>461</v>
+      </c>
+      <c r="G280" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>344</v>
+      </c>
+      <c r="B281" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="277" spans="2:2">
-      <c r="B277" t="s">
+      <c r="F281" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>344</v>
+      </c>
+      <c r="B282" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="278" spans="2:2">
-      <c r="B278" t="s">
+      <c r="F282" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="B283" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="279" spans="2:2">
-      <c r="B279" t="s">
+    <row r="284" spans="1:7">
+      <c r="B284" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="280" spans="2:2">
-      <c r="B280" t="s">
+    <row r="285" spans="1:7">
+      <c r="B285" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="281" spans="2:2">
-      <c r="B281" t="s">
+    <row r="286" spans="1:7">
+      <c r="B286" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="282" spans="2:2">
-      <c r="B282" t="s">
+    <row r="287" spans="1:7">
+      <c r="B287" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="283" spans="2:2">
-      <c r="B283" t="s">
+    <row r="288" spans="1:7">
+      <c r="B288" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="284" spans="2:2">
-      <c r="B284" t="s">
+    <row r="289" spans="1:7">
+      <c r="B289" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="285" spans="2:2">
-      <c r="B285" t="s">
+    <row r="290" spans="1:7">
+      <c r="B290" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="286" spans="2:2">
-      <c r="B286" t="s">
+    <row r="291" spans="1:7">
+      <c r="B291" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="287" spans="2:2">
-      <c r="B287" t="s">
+    <row r="292" spans="1:7">
+      <c r="B292" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="288" spans="2:2">
-      <c r="B288" t="s">
+    <row r="293" spans="1:7">
+      <c r="B293" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="289" spans="2:2">
-      <c r="B289" t="s">
+    <row r="294" spans="1:7">
+      <c r="B294" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="290" spans="2:2">
-      <c r="B290" t="s">
+    <row r="295" spans="1:7">
+      <c r="B295" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="291" spans="2:2">
-      <c r="B291" t="s">
+    <row r="296" spans="1:7">
+      <c r="B296" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="292" spans="2:2">
-      <c r="B292" t="s">
+    <row r="297" spans="1:7">
+      <c r="B297" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="293" spans="2:2">
-      <c r="B293" t="s">
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>345</v>
+      </c>
+      <c r="B298" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="294" spans="2:2">
-      <c r="B294" t="s">
+      <c r="F298" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>345</v>
+      </c>
+      <c r="B299" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="295" spans="2:2">
-      <c r="B295" t="s">
+      <c r="F299" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>345</v>
+      </c>
+      <c r="B300" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="296" spans="2:2">
-      <c r="B296" t="s">
+      <c r="F300" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>345</v>
+      </c>
+      <c r="B301" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="297" spans="2:2">
-      <c r="B297" t="s">
+      <c r="F301" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>345</v>
+      </c>
+      <c r="B302" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="298" spans="2:2">
-      <c r="B298" t="s">
+      <c r="F302" t="s">
+        <v>450</v>
+      </c>
+      <c r="G302" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>345</v>
+      </c>
+      <c r="B303" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="299" spans="2:2">
-      <c r="B299" t="s">
+      <c r="F303" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>345</v>
+      </c>
+      <c r="B304" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="300" spans="2:2">
-      <c r="B300" t="s">
+      <c r="F304" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="s">
+        <v>345</v>
+      </c>
+      <c r="B305" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="301" spans="2:2">
-      <c r="B301" t="s">
+      <c r="F305" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" t="s">
+        <v>345</v>
+      </c>
+      <c r="B306" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="302" spans="2:2">
-      <c r="B302" t="s">
+      <c r="F306" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="s">
+        <v>345</v>
+      </c>
+      <c r="B307" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="303" spans="2:2">
-      <c r="B303" t="s">
+      <c r="F307" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="B308" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="304" spans="2:2">
-      <c r="B304" t="s">
+    <row r="309" spans="1:6">
+      <c r="B309" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="305" spans="2:2">
-      <c r="B305" t="s">
+    <row r="310" spans="1:6">
+      <c r="B310" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="306" spans="2:2">
-      <c r="B306" t="s">
+    <row r="311" spans="1:6">
+      <c r="B311" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="307" spans="2:2">
-      <c r="B307" t="s">
+    <row r="312" spans="1:6">
+      <c r="B312" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="308" spans="2:2">
-      <c r="B308" t="s">
+    <row r="313" spans="1:6">
+      <c r="B313" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="309" spans="2:2">
-      <c r="B309" t="s">
+    <row r="314" spans="1:6">
+      <c r="B314" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="310" spans="2:2">
-      <c r="B310" t="s">
+    <row r="315" spans="1:6">
+      <c r="B315" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="311" spans="2:2">
-      <c r="B311" t="s">
+    <row r="316" spans="1:6">
+      <c r="B316" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="312" spans="2:2">
-      <c r="B312" t="s">
+    <row r="317" spans="1:6">
+      <c r="B317" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="313" spans="2:2">
-      <c r="B313" t="s">
+    <row r="318" spans="1:6">
+      <c r="B318" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="314" spans="2:2">
-      <c r="B314" t="s">
+    <row r="319" spans="1:6">
+      <c r="B319" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="315" spans="2:2">
-      <c r="B315" t="s">
+    <row r="320" spans="1:6">
+      <c r="B320" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="316" spans="2:2">
-      <c r="B316" t="s">
+    <row r="321" spans="2:2">
+      <c r="B321" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="317" spans="2:2">
-      <c r="B317" t="s">
+    <row r="322" spans="2:2">
+      <c r="B322" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="318" spans="2:2">
-      <c r="B318" t="s">
+    <row r="323" spans="2:2">
+      <c r="B323" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="319" spans="2:2">
-      <c r="B319" t="s">
+    <row r="324" spans="2:2">
+      <c r="B324" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="320" spans="2:2">
-      <c r="B320" t="s">
+    <row r="325" spans="2:2">
+      <c r="B325" s="1" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="321" spans="2:2">
-      <c r="B321" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="322" spans="2:2">
-      <c r="B322" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="323" spans="2:2">
-      <c r="B323" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="324" spans="2:2">
-      <c r="B324" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="325" spans="2:2">
-      <c r="B325" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
